--- a/init_scripts/INIT_TABLE_DATA/t_page.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_page.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628DFFAD-03B6-4403-9C6C-ADF732753FEC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967E54D2-8DBB-4013-8828-23CCD4562636}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>website</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,26 @@
   </si>
   <si>
     <t>报表-直通车报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品销宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-品牌专区报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌专区报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://branding.taobao.com/#!/report/index?productid=101005201</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,19 +424,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
-    <col min="6" max="6" width="48.33203125" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -456,12 +476,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" location="!/report/bpreport/index" xr:uid="{C5FA67E2-7F95-4989-89F6-3E5BBC259C4B}"/>
+    <hyperlink ref="F3" r:id="rId2" location="!/report/index?productid=101005201" xr:uid="{11E87BD6-1BB8-4D94-AC2D-AE525EEE6910}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/init_scripts/INIT_TABLE_DATA/t_page.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_page.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967E54D2-8DBB-4013-8828-23CCD4562636}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB683C-1747-4B00-92D9-BE6603D148F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>website</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,50 @@
   <si>
     <t>https://branding.taobao.com/#!/report/index?productid=101005201</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直通车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-定向报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://subway.simba.taobao.com/#!/report/n-rpt/place/index</t>
+  </si>
+  <si>
+    <t>报表-明星店铺报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星店铺报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://branding.taobao.com/#!/report/index?productid=101005202</t>
+  </si>
+  <si>
+    <t>钻展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表-报表批量下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报表批量下载</t>
+  </si>
+  <si>
+    <t>https://zuanshi.taobao.com/indexbp.jsp#!/report2/download</t>
   </si>
 </sst>
 </file>
@@ -424,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -478,28 +522,82 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" location="!/report/bpreport/index" xr:uid="{C5FA67E2-7F95-4989-89F6-3E5BBC259C4B}"/>
-    <hyperlink ref="F3" r:id="rId2" location="!/report/index?productid=101005201" xr:uid="{11E87BD6-1BB8-4D94-AC2D-AE525EEE6910}"/>
+    <hyperlink ref="F5" r:id="rId2" location="!/report/index?productid=101005201" xr:uid="{11E87BD6-1BB8-4D94-AC2D-AE525EEE6910}"/>
+    <hyperlink ref="F3" r:id="rId3" location="!/report/n-rpt/place/index" display="https://subway.simba.taobao.com/ - !/report/n-rpt/place/index" xr:uid="{4B0AA429-CFCC-4B86-84CC-8563545758D7}"/>
+    <hyperlink ref="F6" r:id="rId4" location="!/report/index?productid=101005202" display="https://branding.taobao.com/ - !/report/index?productid=101005202" xr:uid="{A6CB40A9-85FA-4A02-B9F6-CE864D9A2C17}"/>
+    <hyperlink ref="F4" r:id="rId5" location="!/report2/download" display="https://zuanshi.taobao.com/indexbp.jsp - !/report2/download" xr:uid="{D23D2E99-7E9E-4835-B8D3-DC478003B426}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
--- a/init_scripts/INIT_TABLE_DATA/t_page.xlsx
+++ b/init_scripts/INIT_TABLE_DATA/t_page.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BB683C-1747-4B00-92D9-BE6603D148F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29E63F4-D0E7-4E7E-9DCB-4274EF3289B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>website</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,18 +65,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表-直通车报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>品销宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表-品牌专区报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,18 +81,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直通车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表-定向报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>定向报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +92,6 @@
     <t>https://subway.simba.taobao.com/#!/report/n-rpt/place/index</t>
   </si>
   <si>
-    <t>报表-明星店铺报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明星店铺报表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,21 +103,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报表-报表批量下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报表批量下载</t>
   </si>
   <si>
     <t>https://zuanshi.taobao.com/indexbp.jsp#!/report2/download</t>
+  </si>
+  <si>
+    <t>账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://branding.taobao.com/#!/account/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生意参谋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sycm.taobao.com/custom/promotion/sales?spm=a21ag.11815310.TopMenu.d268.1af750a5PS3efL</t>
+  </si>
+  <si>
+    <t>https://tuijian.taobao.com/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直通车-报表-直通车报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直通车-报表-定向报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻展-报表-报表批量下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品销宝-报表-品牌专区报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品销宝-报表-明星店铺报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品销宝-账户-账户明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级推荐-报表-报表批量下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生意参谋-营销-营销工具-店铺券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,14 +197,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -179,18 +223,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,15 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
@@ -508,7 +550,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -522,82 +564,129 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="D7" t="s">
         <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="!/report/bpreport/index" xr:uid="{C5FA67E2-7F95-4989-89F6-3E5BBC259C4B}"/>
-    <hyperlink ref="F5" r:id="rId2" location="!/report/index?productid=101005201" xr:uid="{11E87BD6-1BB8-4D94-AC2D-AE525EEE6910}"/>
-    <hyperlink ref="F3" r:id="rId3" location="!/report/n-rpt/place/index" display="https://subway.simba.taobao.com/ - !/report/n-rpt/place/index" xr:uid="{4B0AA429-CFCC-4B86-84CC-8563545758D7}"/>
-    <hyperlink ref="F6" r:id="rId4" location="!/report/index?productid=101005202" display="https://branding.taobao.com/ - !/report/index?productid=101005202" xr:uid="{A6CB40A9-85FA-4A02-B9F6-CE864D9A2C17}"/>
-    <hyperlink ref="F4" r:id="rId5" location="!/report2/download" display="https://zuanshi.taobao.com/indexbp.jsp - !/report2/download" xr:uid="{D23D2E99-7E9E-4835-B8D3-DC478003B426}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>